--- a/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
+++ b/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\log-hub\log_hub\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F445B5-2885-4344-9ED8-45184DF0E1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29F71D-68B4-4CAC-B9DF-29E4C85756A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7623B84A-1039-4ECA-847E-AF1521EC2B05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{7623B84A-1039-4ECA-847E-AF1521EC2B05}"/>
   </bookViews>
   <sheets>
-    <sheet name="jobs" sheetId="5" r:id="rId1"/>
-    <sheet name="timeWindowProfiles" sheetId="6" r:id="rId2"/>
-    <sheet name="breaks" sheetId="7" r:id="rId3"/>
+    <sheet name="timeWindowProfiles" sheetId="6" r:id="rId1"/>
+    <sheet name="breaks" sheetId="7" r:id="rId2"/>
+    <sheet name="jobs" sheetId="5" r:id="rId3"/>
     <sheet name="depots" sheetId="3" r:id="rId4"/>
     <sheet name="vehicles" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="102">
   <si>
     <t>Depot_Zurich</t>
   </si>
@@ -316,16 +316,52 @@
   </si>
   <si>
     <t>breakDuration</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>processingTimeAtTheDepo</t>
+  </si>
+  <si>
+    <t>perKilometer</t>
+  </si>
+  <si>
+    <t>costPerStop</t>
+  </si>
+  <si>
+    <t>minimumTravelTime</t>
+  </si>
+  <si>
+    <t>max_distance</t>
+  </si>
+  <si>
+    <t>maximumDistanceBetweenStops</t>
+  </si>
+  <si>
+    <t>external_costs</t>
+  </si>
+  <si>
+    <t>earliestRelativeBreakStart</t>
+  </si>
+  <si>
+    <t>latestRelativeBreakStart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,34 +414,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,9 +465,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{35FA06F7-5D16-4B5B-AE07-1BC7CF5A3359}" name="Table29" displayName="Table29" ref="A1:M45" totalsRowShown="0">
-  <autoFilter ref="A1:M45" xr:uid="{35FA06F7-5D16-4B5B-AE07-1BC7CF5A3359}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{250C1452-D5DB-4ACC-B4F6-DAC914B95AEE}" name="Table310" displayName="Table310" ref="A1:D11" totalsRowShown="0">
+  <autoFilter ref="A1:D11" xr:uid="{250C1452-D5DB-4ACC-B4F6-DAC914B95AEE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A0AFECEA-9181-406C-83ED-96D77EB97592}" name="id"/>
+    <tableColumn id="4" xr3:uid="{7C4CAAB7-A83C-439C-B87B-CD444EAD3775}" name="timeWindowProfileId"/>
+    <tableColumn id="2" xr3:uid="{88DC3A5F-15D2-4D89-AF5C-A9C1B10F720F}" name="timeWindowProfileStart" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7FA347E1-6F8E-4037-BA60-8FB449F652A8}" name="timeWindowProfileEnd" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0D67CC77-2814-4581-8C7A-088B2BDDDF01}" name="Table411" displayName="Table411" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{0D67CC77-2814-4581-8C7A-088B2BDDDF01}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C7767BD8-422F-4184-9184-60064B8AF2B9}" name="id"/>
+    <tableColumn id="5" xr3:uid="{B63CEDAF-EDCE-47F1-AEA8-21A1A662BDB8}" name="breakId"/>
+    <tableColumn id="2" xr3:uid="{6E8E385D-FB44-4C5B-B32E-8CA03851A9FF}" name="earliestBreakStart" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{209975ED-786F-446D-9E7C-534CCE960579}" name="latestBreakStart" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D2576AF4-895A-4007-A5A9-8AFFF61E49DB}" name="earliestRelativeBreakStart" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BF055554-2291-41EA-AB2B-2E2849F8A18B}" name="latestRelativeBreakStart" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{46CEFF8F-BCD0-4E30-8E9A-67AB4C569AD3}" name="breakDuration"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{35FA06F7-5D16-4B5B-AE07-1BC7CF5A3359}" name="Table29" displayName="Table29" ref="A1:N45" totalsRowShown="0">
+  <autoFilter ref="A1:N45" xr:uid="{35FA06F7-5D16-4B5B-AE07-1BC7CF5A3359}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{C22F81FD-328D-4C11-B74C-5C13B36529FC}" name="id"/>
     <tableColumn id="13" xr3:uid="{77276256-72F3-4641-982D-18E6AFDE1243}" name="orderId"/>
     <tableColumn id="2" xr3:uid="{29009694-E7BC-4E19-8403-335E0ED4B8B6}" name="latitude"/>
@@ -437,55 +510,30 @@
     <tableColumn id="10" xr3:uid="{5F0CC41A-9340-48BC-A04C-F5453B395E90}" name="stopDuration"/>
     <tableColumn id="11" xr3:uid="{6D832645-376C-4F7B-A0EE-CAADB0F89EFD}" name="timeWindowProfile"/>
     <tableColumn id="12" xr3:uid="{C006531B-2DB3-4C39-9FEB-A46FDF47B145}" name="stopDurationAtDepo"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{250C1452-D5DB-4ACC-B4F6-DAC914B95AEE}" name="Table310" displayName="Table310" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{250C1452-D5DB-4ACC-B4F6-DAC914B95AEE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A0AFECEA-9181-406C-83ED-96D77EB97592}" name="id"/>
-    <tableColumn id="4" xr3:uid="{7C4CAAB7-A83C-439C-B87B-CD444EAD3775}" name="timeWindowProfileId"/>
-    <tableColumn id="2" xr3:uid="{88DC3A5F-15D2-4D89-AF5C-A9C1B10F720F}" name="timeWindowProfileStart" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7FA347E1-6F8E-4037-BA60-8FB449F652A8}" name="timeWindowProfileEnd" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0D67CC77-2814-4581-8C7A-088B2BDDDF01}" name="Table411" displayName="Table411" ref="A1:E2" totalsRowShown="0">
-  <autoFilter ref="A1:E2" xr:uid="{0D67CC77-2814-4581-8C7A-088B2BDDDF01}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7767BD8-422F-4184-9184-60064B8AF2B9}" name="id"/>
-    <tableColumn id="5" xr3:uid="{B63CEDAF-EDCE-47F1-AEA8-21A1A662BDB8}" name="breakId"/>
-    <tableColumn id="2" xr3:uid="{6E8E385D-FB44-4C5B-B32E-8CA03851A9FF}" name="earliestBreakStart" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{209975ED-786F-446D-9E7C-534CCE960579}" name="latestBreakStart" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D2576AF4-895A-4007-A5A9-8AFFF61E49DB}" name="breakDuration"/>
+    <tableColumn id="14" xr3:uid="{074CF49C-600A-46D3-929A-DEEB5D9A3AE4}" name="external_costs"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EBE28600-2740-4B18-9C20-4065EAFE8BC9}" name="Table17" displayName="Table17" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{EBE28600-2740-4B18-9C20-4065EAFE8BC9}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EBE28600-2740-4B18-9C20-4065EAFE8BC9}" name="Table17" displayName="Table17" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{EBE28600-2740-4B18-9C20-4065EAFE8BC9}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B9622672-2470-454D-981A-08F1F3B3FB89}" name="id"/>
     <tableColumn id="4" xr3:uid="{1F2A4CF5-D809-44A6-8A46-895B3D51A07F}" name="depotId"/>
     <tableColumn id="2" xr3:uid="{627BABEA-47C3-4166-8F55-C95C9352968D}" name="latitude"/>
     <tableColumn id="3" xr3:uid="{71161DEC-3D06-4B5E-9A42-F461A6C9F5D7}" name="longitude"/>
+    <tableColumn id="5" xr3:uid="{07FA63E7-C27B-40D3-8FC4-379FF4659F85}" name="processingTimeAtTheDepo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{490C5DA9-6AD4-43D6-97D4-BE458C251E99}" name="Table28" displayName="Table28" ref="A1:Q16" totalsRowShown="0">
-  <autoFilter ref="A1:Q16" xr:uid="{490C5DA9-6AD4-43D6-97D4-BE458C251E99}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{490C5DA9-6AD4-43D6-97D4-BE458C251E99}" name="Table28" displayName="Table28" ref="A1:V16" totalsRowShown="0">
+  <autoFilter ref="A1:V16" xr:uid="{490C5DA9-6AD4-43D6-97D4-BE458C251E99}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{DBCB3C56-E1FB-44CB-BE51-CEA02FC88CBE}" name="id"/>
     <tableColumn id="17" xr3:uid="{3DBB0E20-7E78-474C-AA9C-FFFED0FB6303}" name="vehicleTypeId"/>
     <tableColumn id="2" xr3:uid="{E9F1C2D8-5A3B-4D5F-8308-FF2D983698A6}" name="availableVehicles"/>
@@ -495,13 +543,18 @@
     <tableColumn id="6" xr3:uid="{28C18FDD-0C67-45C0-BF4B-F046F52527A2}" name="maxVolume"/>
     <tableColumn id="7" xr3:uid="{C4E0EC83-E7A7-4B63-AB59-563206958100}" name="maxPallets"/>
     <tableColumn id="8" xr3:uid="{07E68BF0-0ADC-4D08-8214-567C7E660E17}" name="maxStops"/>
-    <tableColumn id="9" xr3:uid="{D27D34A8-93C6-4FAE-BF0D-E33B7F71D346}" name="timeWindowStart" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{47F0AD4A-9A1E-4D9E-A28E-E23EC12090E4}" name="timeWindowEnd" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{D27D34A8-93C6-4FAE-BF0D-E33B7F71D346}" name="timeWindowStart" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{47F0AD4A-9A1E-4D9E-A28E-E23EC12090E4}" name="timeWindowEnd" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{19EB1AB1-E3D2-4670-A607-A635EA7EB92F}" name="profile"/>
     <tableColumn id="12" xr3:uid="{B1933258-2303-4C35-A687-CDF9BBF47761}" name="speedFactor"/>
     <tableColumn id="13" xr3:uid="{D02EAA1D-3A2D-4FCA-B7E1-80186063ADDB}" name="fixed"/>
     <tableColumn id="14" xr3:uid="{DED1BF29-8973-4DF4-9D57-B7A5BC8F5476}" name="perHour"/>
+    <tableColumn id="19" xr3:uid="{DB6766E5-7B71-4F57-9760-1FE3009D85ED}" name="perKilometer"/>
+    <tableColumn id="18" xr3:uid="{BCDE9999-4111-47CA-93EC-30978E450EB8}" name="costPerStop"/>
+    <tableColumn id="20" xr3:uid="{7BF2BCE1-1CFA-4821-AF6F-38D073844C54}" name="minimumTravelTime"/>
     <tableColumn id="15" xr3:uid="{3F2C25EE-6F14-4873-8148-AD9166249B8A}" name="maxTravelTime"/>
+    <tableColumn id="22" xr3:uid="{02F70D67-8596-41CC-BD8D-8F5F37FC36BB}" name="max_distance"/>
+    <tableColumn id="21" xr3:uid="{4B3FBE10-34F5-4457-B88F-FEA26BA1DD97}" name="maximumDistanceBetweenStops"/>
     <tableColumn id="16" xr3:uid="{1F93525A-3148-4675-B08E-A04832AD235B}" name="breakId"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -509,9 +562,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +602,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +708,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,7 +858,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -818,11 +871,16 @@
     <we:reference id="WA104381181" version="2.0.0.2" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
+    <we:property name="18_1breaks" value="&quot;38092f6e-a75e6c54-7f406c77&quot;"/>
     <we:property name="18_1depots" value="&quot;1af7355a-bde6f764-671bdae0&quot;"/>
+    <we:property name="18_1jobs" value="&quot;0478892a-a720ac40-9e575f17&quot;"/>
+    <we:property name="18_1timeWindowProfiles" value="&quot;37c08944-98ccc456-6183d2ad&quot;"/>
     <we:property name="18_1vehicles" value="&quot;cd5bdf19-39b650b1-2d6e52ca&quot;"/>
-    <we:property name="18_1timeWindowProfiles" value="&quot;37c08944-98ccc456-6183d2ad&quot;"/>
-    <we:property name="18_1breaks" value="&quot;38092f6e-a75e6c54-7f406c77&quot;"/>
-    <we:property name="18_1jobs" value="&quot;0478892a-a720ac40-9e575f17&quot;"/>
+    <we:property name="2_2depots" value="&quot;01303199-1c366d86-b5fe2d22&quot;"/>
+    <we:property name="2_2vehicles" value="&quot;36eb2374-f038b776-fe0e2635&quot;"/>
+    <we:property name="2_2jobs" value="&quot;ee4a5e74-013b2564-6a8b8407&quot;"/>
+    <we:property name="2_2timeWindowProfiles" value="&quot;5f795b3a-f953b3b0-45277a3b&quot;"/>
+    <we:property name="2_2breaks" value="&quot;d8bd5ed6-e699a1dc-946fa25e&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="1af7355a-bde6f764-671bdae0" type="table" appref="{DD65835C-B647-4690-9F6A-6229DEFC4BC2}"/>
@@ -830,36 +888,359 @@
     <we:binding id="37c08944-98ccc456-6183d2ad" type="table" appref="{B71DBB60-9A28-4DC4-BE8E-58BC57BCAD58}"/>
     <we:binding id="38092f6e-a75e6c54-7f406c77" type="table" appref="{C55526B3-4288-4DED-A2A7-45032C51DD3F}"/>
     <we:binding id="0478892a-a720ac40-9e575f17" type="table" appref="{E9A5551A-1DB5-4654-914D-DDF528135674}"/>
+    <we:binding id="01303199-1c366d86-b5fe2d22" type="table" appref="{903C0781-0DA5-4C6E-9E89-C2B2B8766A94}"/>
+    <we:binding id="36eb2374-f038b776-fe0e2635" type="table" appref="{AA6329C8-7FC3-48DD-B3F7-22AB1784471F}"/>
+    <we:binding id="ee4a5e74-013b2564-6a8b8407" type="table" appref="{BDEDCEF8-1E75-4813-B2B4-EF23BBB80088}"/>
+    <we:binding id="5f795b3a-f953b3b0-45277a3b" type="table" appref="{EAE1342D-1B33-4C11-9E98-059A952D7EF0}"/>
+    <we:binding id="d8bd5ed6-e699a1dc-946fa25e" type="table" appref="{81426C9C-CF8B-494D-8B5B-9DEC6FA0E90A}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E5911F-EC1E-4E1B-9250-A0147E68BE5C}">
-  <dimension ref="A1:M45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659B2CB-E1E2-4562-9207-711F30C2A3F1}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44546.916666666701</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44547.020833333299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44547.0625</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44547.208333333299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44547.916666666701</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44548.020833333299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44548.0625</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44548.208333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44548.916666666701</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44549.020833333299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44549.0625</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44549.208333333299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44549.916666666701</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44550.020833333299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44550.0625</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44550.208333333299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44550.916666666701</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44551.020833333299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44551.0625</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44551.208333333299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E010BDEF-D4F7-4F5E-B9BB-FDB19AEBF586}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44546.833333333299</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44546.875</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44546.916666666701</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44546.958333333299</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.3333333300000006E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.16666666669999999</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.33333333329999998</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E5911F-EC1E-4E1B-9250-A0147E68BE5C}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -899,8 +1280,11 @@
       <c r="M1" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -914,10 +1298,10 @@
         <v>8.5377130000000001</v>
       </c>
       <c r="E2">
-        <v>336</v>
+        <v>1743</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -938,10 +1322,13 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -955,10 +1342,10 @@
         <v>8.5264608000000006</v>
       </c>
       <c r="E3">
-        <v>204</v>
+        <v>1542</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -979,10 +1366,13 @@
         <v>8</v>
       </c>
       <c r="M3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -996,10 +1386,10 @@
         <v>8.5371556000000002</v>
       </c>
       <c r="E4">
-        <v>460</v>
+        <v>2600</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -1020,10 +1410,13 @@
         <v>8</v>
       </c>
       <c r="M4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1037,10 +1430,10 @@
         <v>8.5200923999999993</v>
       </c>
       <c r="E5">
-        <v>360</v>
+        <v>2032</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1061,10 +1454,13 @@
         <v>8</v>
       </c>
       <c r="M5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1078,10 +1474,10 @@
         <v>8.5087150000000005</v>
       </c>
       <c r="E6">
-        <v>301</v>
+        <v>1708</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1102,10 +1498,13 @@
         <v>8</v>
       </c>
       <c r="M6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1119,10 +1518,10 @@
         <v>8.5234085999999998</v>
       </c>
       <c r="E7">
-        <v>564</v>
+        <v>2856</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -1143,10 +1542,13 @@
         <v>8</v>
       </c>
       <c r="M7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1160,10 +1562,10 @@
         <v>8.5342265000000008</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>1325</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -1184,10 +1586,13 @@
         <v>8</v>
       </c>
       <c r="M8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1201,10 +1606,10 @@
         <v>8.5360797000000002</v>
       </c>
       <c r="E9">
-        <v>245</v>
+        <v>1764</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -1225,10 +1630,13 @@
         <v>8</v>
       </c>
       <c r="M9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1242,10 +1650,10 @@
         <v>8.5480408000000008</v>
       </c>
       <c r="E10">
-        <v>492</v>
+        <v>3036</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -1266,10 +1674,13 @@
         <v>8</v>
       </c>
       <c r="M10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1283,10 +1694,10 @@
         <v>8.5409872999999994</v>
       </c>
       <c r="E11">
-        <v>450</v>
+        <v>2304</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -1307,10 +1718,13 @@
         <v>8</v>
       </c>
       <c r="M11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1324,10 +1738,10 @@
         <v>8.7127550574220791</v>
       </c>
       <c r="E12">
-        <v>324</v>
+        <v>2115</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1348,10 +1762,13 @@
         <v>9</v>
       </c>
       <c r="M12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1365,10 +1782,10 @@
         <v>8.7234974453558092</v>
       </c>
       <c r="E13">
-        <v>540</v>
+        <v>2784</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1389,10 +1806,13 @@
         <v>9</v>
       </c>
       <c r="M13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1406,10 +1826,10 @@
         <v>8.7242864343000992</v>
       </c>
       <c r="E14">
-        <v>324</v>
+        <v>2106</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1430,10 +1850,13 @@
         <v>9</v>
       </c>
       <c r="M14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1447,10 +1870,10 @@
         <v>8.7588198734769005</v>
       </c>
       <c r="E15">
-        <v>360</v>
+        <v>2892</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>12</v>
@@ -1471,10 +1894,13 @@
         <v>9</v>
       </c>
       <c r="M15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1488,10 +1914,10 @@
         <v>8.7042368011627307</v>
       </c>
       <c r="E16">
-        <v>344</v>
+        <v>1912</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -1512,10 +1938,13 @@
         <v>9</v>
       </c>
       <c r="M16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1529,10 +1958,10 @@
         <v>8.7642324478576601</v>
       </c>
       <c r="E17">
-        <v>160</v>
+        <v>1028</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1553,10 +1982,13 @@
         <v>9</v>
       </c>
       <c r="M17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1570,10 +2002,10 @@
         <v>8.7120473886753302</v>
       </c>
       <c r="E18">
-        <v>363</v>
+        <v>2706</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -1594,10 +2026,13 @@
         <v>9</v>
       </c>
       <c r="M18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="N18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1611,10 +2046,10 @@
         <v>8.6937654534163595</v>
       </c>
       <c r="E19">
-        <v>324</v>
+        <v>2376</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1635,10 +2070,13 @@
         <v>9</v>
       </c>
       <c r="M19">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1652,10 +2090,10 @@
         <v>8.7319601068916697</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>771</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1676,10 +2114,13 @@
         <v>9</v>
       </c>
       <c r="M20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1693,10 +2134,10 @@
         <v>8.7620866762620899</v>
       </c>
       <c r="E21">
-        <v>430</v>
+        <v>2480</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -1717,10 +2158,13 @@
         <v>9</v>
       </c>
       <c r="M21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1734,10 +2178,10 @@
         <v>8.3067576870836</v>
       </c>
       <c r="E22">
-        <v>550</v>
+        <v>2849</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>11</v>
@@ -1758,10 +2202,13 @@
         <v>10</v>
       </c>
       <c r="M22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="N22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1775,10 +2222,10 @@
         <v>8.3081670500264799</v>
       </c>
       <c r="E23">
-        <v>231</v>
+        <v>1757</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -1799,10 +2246,13 @@
         <v>10</v>
       </c>
       <c r="M23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1816,10 +2266,10 @@
         <v>8.31047280740475</v>
       </c>
       <c r="E24">
-        <v>336</v>
+        <v>1764</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>7</v>
@@ -1840,10 +2290,13 @@
         <v>10</v>
       </c>
       <c r="M24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1857,10 +2310,10 @@
         <v>8.2868845022171893</v>
       </c>
       <c r="E25">
-        <v>170</v>
+        <v>1290</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1881,10 +2334,13 @@
         <v>10</v>
       </c>
       <c r="M25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1898,10 +2354,10 @@
         <v>8.3469578983310608</v>
       </c>
       <c r="E26">
-        <v>190</v>
+        <v>1320</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -1922,10 +2378,13 @@
         <v>10</v>
       </c>
       <c r="M26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1939,10 +2398,10 @@
         <v>8.3277318255704493</v>
       </c>
       <c r="E27">
-        <v>500</v>
+        <v>2300</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -1963,10 +2422,13 @@
         <v>10</v>
       </c>
       <c r="M27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1980,10 +2442,10 @@
         <v>8.3242985982917705</v>
       </c>
       <c r="E28">
-        <v>378</v>
+        <v>2214</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -2004,10 +2466,13 @@
         <v>10</v>
       </c>
       <c r="M28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2021,10 +2486,10 @@
         <v>8.3085061188152096</v>
       </c>
       <c r="E29">
-        <v>185</v>
+        <v>1340</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -2045,10 +2510,13 @@
         <v>10</v>
       </c>
       <c r="M29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2062,10 +2530,10 @@
         <v>8.5056730757072607</v>
       </c>
       <c r="E30">
-        <v>156</v>
+        <v>1036</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2086,10 +2554,13 @@
         <v>11</v>
       </c>
       <c r="M30">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2103,10 +2574,10 @@
         <v>8.5182314757318203</v>
       </c>
       <c r="E31">
-        <v>306</v>
+        <v>2349</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>9</v>
@@ -2127,10 +2598,13 @@
         <v>11</v>
       </c>
       <c r="M31">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2144,10 +2618,10 @@
         <v>8.5149114389437202</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>729</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -2168,10 +2642,13 @@
         <v>11</v>
       </c>
       <c r="M32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+      <c r="N32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2185,10 +2662,10 @@
         <v>8.4776120869480902</v>
       </c>
       <c r="E33">
-        <v>441</v>
+        <v>2403</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -2209,10 +2686,13 @@
         <v>11</v>
       </c>
       <c r="M33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2226,10 +2706,10 @@
         <v>8.5176091847447104</v>
       </c>
       <c r="E34">
-        <v>117</v>
+        <v>759</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2250,10 +2730,13 @@
         <v>11</v>
       </c>
       <c r="M34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5</v>
+      </c>
+      <c r="N34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2267,10 +2750,10 @@
         <v>8.5158120104642201</v>
       </c>
       <c r="E35">
-        <v>272</v>
+        <v>2064</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <v>8</v>
@@ -2291,10 +2774,13 @@
         <v>11</v>
       </c>
       <c r="M35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2308,10 +2794,10 @@
         <v>8.4830246899528206</v>
       </c>
       <c r="E36">
-        <v>273</v>
+        <v>1610</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>7</v>
@@ -2332,10 +2818,13 @@
         <v>11</v>
       </c>
       <c r="M36">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2349,10 +2838,10 @@
         <v>8.6555289816656096</v>
       </c>
       <c r="E37">
-        <v>441</v>
+        <v>2385</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>9</v>
@@ -2373,10 +2862,13 @@
         <v>12</v>
       </c>
       <c r="M37">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2390,10 +2882,10 @@
         <v>8.6698627055541007</v>
       </c>
       <c r="E38">
-        <v>216</v>
+        <v>1536</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>6</v>
@@ -2414,10 +2906,13 @@
         <v>12</v>
       </c>
       <c r="M38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2431,10 +2926,10 @@
         <v>8.67252345669508</v>
       </c>
       <c r="E39">
-        <v>300</v>
+        <v>1572</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>6</v>
@@ -2455,10 +2950,13 @@
         <v>12</v>
       </c>
       <c r="M39">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2472,10 +2970,10 @@
         <v>8.6361997463424593</v>
       </c>
       <c r="E40">
-        <v>432</v>
+        <v>2106</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>9</v>
@@ -2496,10 +2994,13 @@
         <v>12</v>
       </c>
       <c r="M40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+      <c r="N40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2513,10 +3014,10 @@
         <v>8.63749508655137</v>
       </c>
       <c r="E41">
-        <v>468</v>
+        <v>3024</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>12</v>
@@ -2537,10 +3038,13 @@
         <v>12</v>
       </c>
       <c r="M41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2554,10 +3058,10 @@
         <v>8.6678791479676907</v>
       </c>
       <c r="E42">
-        <v>473</v>
+        <v>2739</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <v>11</v>
@@ -2578,10 +3082,13 @@
         <v>12</v>
       </c>
       <c r="M42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="N42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2595,10 +3102,10 @@
         <v>8.8557973682163897</v>
       </c>
       <c r="E43">
-        <v>462</v>
+        <v>2651</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <v>11</v>
@@ -2619,10 +3126,13 @@
         <v>12</v>
       </c>
       <c r="M43">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+      <c r="N43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2636,10 +3146,10 @@
         <v>8.8553670177190895</v>
       </c>
       <c r="E44">
-        <v>170</v>
+        <v>1185</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -2660,10 +3170,13 @@
         <v>12</v>
       </c>
       <c r="M44">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2677,10 +3190,10 @@
         <v>8.8183955074765397</v>
       </c>
       <c r="E45">
-        <v>111</v>
+        <v>792</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -2701,7 +3214,10 @@
         <v>12</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>1.5</v>
+      </c>
+      <c r="N45">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2727,283 +3243,64 @@
         <x15:webExtension appRef="{E9A5551A-1DB5-4654-914D-DDF528135674}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{903C0781-0DA5-4C6E-9E89-C2B2B8766A94}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{AA6329C8-7FC3-48DD-B3F7-22AB1784471F}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BDEDCEF8-1E75-4813-B2B4-EF23BBB80088}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{EAE1342D-1B33-4C11-9E98-059A952D7EF0}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{81426C9C-CF8B-494D-8B5B-9DEC6FA0E90A}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6659B2CB-E1E2-4562-9207-711F30C2A3F1}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44546.916666666701</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44547.020833333299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44547.0625</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44547.208333333299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44547.916666666701</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44548.020833333299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44548.0625</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44548.208333333299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44548.916666666701</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44549.020833333299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44549.0625</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44549.208333333299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44549.916666666701</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44550.020833333299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44550.0625</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44550.208333333299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44550.916666666701</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44551.020833333299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44551.0625</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44551.208333333299</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E010BDEF-D4F7-4F5E-B9BB-FDB19AEBF586}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83936523-31D4-44A0-B7ED-4725566162E6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44546.916666666701</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44546.958333333299</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83936523-31D4-44A0-B7ED-4725566162E6}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -3011,6 +3308,9 @@
       </c>
       <c r="D2">
         <v>8.4242630861960901</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3023,34 +3323,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F9E370-506A-4402-B1A3-7E2233719AD5}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -3097,13 +3397,28 @@
         <v>75</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3150,13 +3465,28 @@
         <v>30</v>
       </c>
       <c r="P2">
-        <v>1200</v>
-      </c>
-      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>150</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3203,13 +3533,28 @@
         <v>30</v>
       </c>
       <c r="P3">
-        <v>1200</v>
-      </c>
-      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>150</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3256,13 +3601,28 @@
         <v>30</v>
       </c>
       <c r="P4">
-        <v>1200</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>150</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3309,13 +3669,28 @@
         <v>30</v>
       </c>
       <c r="P5">
-        <v>1200</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>150</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3362,13 +3737,28 @@
         <v>30</v>
       </c>
       <c r="P6">
-        <v>1200</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1000</v>
+      </c>
+      <c r="T6">
+        <v>150</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3415,13 +3805,28 @@
         <v>30</v>
       </c>
       <c r="P7">
-        <v>1200</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1000</v>
+      </c>
+      <c r="T7">
+        <v>150</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3468,13 +3873,28 @@
         <v>30</v>
       </c>
       <c r="P8">
-        <v>1200</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>150</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3521,13 +3941,28 @@
         <v>30</v>
       </c>
       <c r="P9">
-        <v>1200</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>150</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3574,13 +4009,28 @@
         <v>30</v>
       </c>
       <c r="P10">
-        <v>1200</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1000</v>
+      </c>
+      <c r="T10">
+        <v>150</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3627,13 +4077,28 @@
         <v>30</v>
       </c>
       <c r="P11">
-        <v>1200</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1000</v>
+      </c>
+      <c r="T11">
+        <v>150</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3680,13 +4145,28 @@
         <v>30</v>
       </c>
       <c r="P12">
-        <v>1200</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1000</v>
+      </c>
+      <c r="T12">
+        <v>150</v>
+      </c>
+      <c r="U12">
+        <v>100</v>
+      </c>
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3733,13 +4213,28 @@
         <v>30</v>
       </c>
       <c r="P13">
-        <v>1200</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1000</v>
+      </c>
+      <c r="T13">
+        <v>150</v>
+      </c>
+      <c r="U13">
+        <v>100</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3786,13 +4281,28 @@
         <v>30</v>
       </c>
       <c r="P14">
-        <v>1200</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1000</v>
+      </c>
+      <c r="T14">
+        <v>150</v>
+      </c>
+      <c r="U14">
+        <v>100</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3839,13 +4349,28 @@
         <v>30</v>
       </c>
       <c r="P15">
-        <v>1200</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>1000</v>
+      </c>
+      <c r="T15">
+        <v>150</v>
+      </c>
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3892,9 +4417,24 @@
         <v>30</v>
       </c>
       <c r="P16">
-        <v>1200</v>
-      </c>
-      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1000</v>
+      </c>
+      <c r="T16">
+        <v>150</v>
+      </c>
+      <c r="U16">
+        <v>100</v>
+      </c>
+      <c r="V16" t="s">
         <v>3</v>
       </c>
     </row>

--- a/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
+++ b/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA29F71D-68B4-4CAC-B9DF-29E4C85756A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75809CDC-374A-4662-A11D-413495926F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{7623B84A-1039-4ECA-847E-AF1521EC2B05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{7623B84A-1039-4ECA-847E-AF1521EC2B05}"/>
   </bookViews>
   <sheets>
     <sheet name="timeWindowProfiles" sheetId="6" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>speedFactor</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>perHour</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>latestRelativeBreakStart</t>
+  </si>
+  <si>
+    <t>fixedCostsTO</t>
   </si>
 </sst>
 </file>
@@ -414,14 +414,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,16 +433,16 @@
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="26" formatCode="h:mm:ss"/>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
@@ -470,8 +469,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A0AFECEA-9181-406C-83ED-96D77EB97592}" name="id"/>
     <tableColumn id="4" xr3:uid="{7C4CAAB7-A83C-439C-B87B-CD444EAD3775}" name="timeWindowProfileId"/>
-    <tableColumn id="2" xr3:uid="{88DC3A5F-15D2-4D89-AF5C-A9C1B10F720F}" name="timeWindowProfileStart" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{7FA347E1-6F8E-4037-BA60-8FB449F652A8}" name="timeWindowProfileEnd" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{88DC3A5F-15D2-4D89-AF5C-A9C1B10F720F}" name="timeWindowProfileStart" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7FA347E1-6F8E-4037-BA60-8FB449F652A8}" name="timeWindowProfileEnd" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -483,10 +482,10 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C7767BD8-422F-4184-9184-60064B8AF2B9}" name="id"/>
     <tableColumn id="5" xr3:uid="{B63CEDAF-EDCE-47F1-AEA8-21A1A662BDB8}" name="breakId"/>
-    <tableColumn id="2" xr3:uid="{6E8E385D-FB44-4C5B-B32E-8CA03851A9FF}" name="earliestBreakStart" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{209975ED-786F-446D-9E7C-534CCE960579}" name="latestBreakStart" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D2576AF4-895A-4007-A5A9-8AFFF61E49DB}" name="earliestRelativeBreakStart" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BF055554-2291-41EA-AB2B-2E2849F8A18B}" name="latestRelativeBreakStart" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6E8E385D-FB44-4C5B-B32E-8CA03851A9FF}" name="earliestBreakStart" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{209975ED-786F-446D-9E7C-534CCE960579}" name="latestBreakStart" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D2576AF4-895A-4007-A5A9-8AFFF61E49DB}" name="earliestRelativeBreakStart" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BF055554-2291-41EA-AB2B-2E2849F8A18B}" name="latestRelativeBreakStart" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{46CEFF8F-BCD0-4E30-8E9A-67AB4C569AD3}" name="breakDuration"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -543,11 +542,11 @@
     <tableColumn id="6" xr3:uid="{28C18FDD-0C67-45C0-BF4B-F046F52527A2}" name="maxVolume"/>
     <tableColumn id="7" xr3:uid="{C4E0EC83-E7A7-4B63-AB59-563206958100}" name="maxPallets"/>
     <tableColumn id="8" xr3:uid="{07E68BF0-0ADC-4D08-8214-567C7E660E17}" name="maxStops"/>
-    <tableColumn id="9" xr3:uid="{D27D34A8-93C6-4FAE-BF0D-E33B7F71D346}" name="timeWindowStart" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{47F0AD4A-9A1E-4D9E-A28E-E23EC12090E4}" name="timeWindowEnd" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D27D34A8-93C6-4FAE-BF0D-E33B7F71D346}" name="timeWindowStart" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{47F0AD4A-9A1E-4D9E-A28E-E23EC12090E4}" name="timeWindowEnd" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{19EB1AB1-E3D2-4670-A607-A635EA7EB92F}" name="profile"/>
     <tableColumn id="12" xr3:uid="{B1933258-2303-4C35-A687-CDF9BBF47761}" name="speedFactor"/>
-    <tableColumn id="13" xr3:uid="{D02EAA1D-3A2D-4FCA-B7E1-80186063ADDB}" name="fixed"/>
+    <tableColumn id="13" xr3:uid="{D02EAA1D-3A2D-4FCA-B7E1-80186063ADDB}" name="fixedCostsTO"/>
     <tableColumn id="14" xr3:uid="{DED1BF29-8973-4DF4-9D57-B7A5BC8F5476}" name="perHour"/>
     <tableColumn id="19" xr3:uid="{DB6766E5-7B71-4F57-9760-1FE3009D85ED}" name="perKilometer"/>
     <tableColumn id="18" xr3:uid="{BCDE9999-4111-47CA-93EC-30978E450EB8}" name="costPerStop"/>
@@ -861,6 +860,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -876,11 +878,11 @@
     <we:property name="18_1jobs" value="&quot;0478892a-a720ac40-9e575f17&quot;"/>
     <we:property name="18_1timeWindowProfiles" value="&quot;37c08944-98ccc456-6183d2ad&quot;"/>
     <we:property name="18_1vehicles" value="&quot;cd5bdf19-39b650b1-2d6e52ca&quot;"/>
-    <we:property name="2_2depots" value="&quot;01303199-1c366d86-b5fe2d22&quot;"/>
-    <we:property name="2_2vehicles" value="&quot;36eb2374-f038b776-fe0e2635&quot;"/>
-    <we:property name="2_2jobs" value="&quot;ee4a5e74-013b2564-6a8b8407&quot;"/>
-    <we:property name="2_2timeWindowProfiles" value="&quot;5f795b3a-f953b3b0-45277a3b&quot;"/>
-    <we:property name="2_2breaks" value="&quot;d8bd5ed6-e699a1dc-946fa25e&quot;"/>
+    <we:property name="2_2breaks" value="&quot;4fa0acb1-34a3e1f3-fcd9c511&quot;"/>
+    <we:property name="2_2depots" value="&quot;f8c8ba26-1d1e5acf-faf04d0c&quot;"/>
+    <we:property name="2_2jobs" value="&quot;18ce98a8-2b92c7bb-918dbd64&quot;"/>
+    <we:property name="2_2timeWindowProfiles" value="&quot;f81b2ec6-e32e0066-15a0ef42&quot;"/>
+    <we:property name="2_2vehicles" value="&quot;35eaaa75-23c7e73e-b1e65178&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="1af7355a-bde6f764-671bdae0" type="table" appref="{DD65835C-B647-4690-9F6A-6229DEFC4BC2}"/>
@@ -888,11 +890,59 @@
     <we:binding id="37c08944-98ccc456-6183d2ad" type="table" appref="{B71DBB60-9A28-4DC4-BE8E-58BC57BCAD58}"/>
     <we:binding id="38092f6e-a75e6c54-7f406c77" type="table" appref="{C55526B3-4288-4DED-A2A7-45032C51DD3F}"/>
     <we:binding id="0478892a-a720ac40-9e575f17" type="table" appref="{E9A5551A-1DB5-4654-914D-DDF528135674}"/>
-    <we:binding id="01303199-1c366d86-b5fe2d22" type="table" appref="{903C0781-0DA5-4C6E-9E89-C2B2B8766A94}"/>
-    <we:binding id="36eb2374-f038b776-fe0e2635" type="table" appref="{AA6329C8-7FC3-48DD-B3F7-22AB1784471F}"/>
-    <we:binding id="ee4a5e74-013b2564-6a8b8407" type="table" appref="{BDEDCEF8-1E75-4813-B2B4-EF23BBB80088}"/>
-    <we:binding id="5f795b3a-f953b3b0-45277a3b" type="table" appref="{EAE1342D-1B33-4C11-9E98-059A952D7EF0}"/>
-    <we:binding id="d8bd5ed6-e699a1dc-946fa25e" type="table" appref="{81426C9C-CF8B-494D-8B5B-9DEC6FA0E90A}"/>
+    <we:binding id="f8c8ba26-1d1e5acf-faf04d0c" type="table" appref="{471F297D-6875-4322-9DE3-35928C6D9C27}"/>
+    <we:binding id="35eaaa75-23c7e73e-b1e65178" type="table" appref="{2035FF5F-6EDE-48D6-91FF-26B3BE491F60}"/>
+    <we:binding id="18ce98a8-2b92c7bb-918dbd64" type="table" appref="{E5C6B0B7-4810-4698-8EBD-40C60CE5284E}"/>
+    <we:binding id="f81b2ec6-e32e0066-15a0ef42" type="table" appref="{A82170B4-B383-4EA2-923C-A104667ADF53}"/>
+    <we:binding id="4fa0acb1-34a3e1f3-fcd9c511" type="table" appref="{E015CDBB-D758-411F-9010-F09FFEC9C4C2}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{15F05B3A-4A6A-4DFB-8D1A-38445FB93235}">
+  <we:reference id="e504fb41-a92a-4526-b101-542f357b7983" version="1.0.0.0" store="\\LAPTOP-ULOOTDBM\Manifest" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties>
+    <we:property name="2_2breaks" value="&quot;c6e4b4f7-fb798e2f-c0709290&quot;"/>
+    <we:property name="2_2depots" value="&quot;3949aa22-d33bcf75-5d7adfcc&quot;"/>
+    <we:property name="2_2jobs" value="&quot;321c03fd-3173fe0c-52403b71&quot;"/>
+    <we:property name="2_2timeWindowProfiles" value="&quot;fe50f66b-0debbdee-581cdc70&quot;"/>
+    <we:property name="2_2vehicles" value="&quot;0654ef70-1a91832e-a83425cd&quot;"/>
+    <we:property name="2_2routeOverview" value="&quot;3d58e438-99574d9e-1cd20636&quot;"/>
+    <we:property name="2_2droppedCustomers" value="&quot;a49c8f59-38a4325c-dfc61be0&quot;"/>
+    <we:property name="2_2parameters" value="&quot;79856da1-7fc20456-4e1b98d8&quot;"/>
+    <we:property name="2_2routeDetails" value="&quot;b87ae9e3-302093d2-f26967e7&quot;"/>
+    <we:property name="2_1depots" value="&quot;30a99369-0c7717de-1991953f&quot;"/>
+    <we:property name="2_1vehicles" value="&quot;cc4e1d13-15a239fd-3a112d10&quot;"/>
+    <we:property name="2_1jobs" value="&quot;ce8bbf2a-c7439f7e-5f8d26c2&quot;"/>
+    <we:property name="2_1timeWindowProfiles" value="&quot;ccf6ea05-d5f621e7-0bf76c66&quot;"/>
+    <we:property name="2_1breaks" value="&quot;32425608-96d8b58f-b301ecdb&quot;"/>
+    <we:property name="2_1routeOverview" value="&quot;8075df83-fc347ab9-038035b4&quot;"/>
+    <we:property name="2_1routeDetails" value="&quot;7370a059-ca5bf989-07e64e37&quot;"/>
+    <we:property name="2_1droppedCustomers" value="&quot;142538ed-c551058a-0a6d5b52&quot;"/>
+    <we:property name="2_1parameters" value="&quot;8c81d4bf-68ba1d92-894f2f32&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="3949aa22-d33bcf75-5d7adfcc" type="table" appref="{18A19C64-8C86-4D25-AAEF-658572E07F4A}"/>
+    <we:binding id="0654ef70-1a91832e-a83425cd" type="table" appref="{6BE8F6FD-E7ED-4060-B2AA-27DD891E1C46}"/>
+    <we:binding id="321c03fd-3173fe0c-52403b71" type="table" appref="{19977064-2444-46F0-95BE-CE656D83E7D0}"/>
+    <we:binding id="fe50f66b-0debbdee-581cdc70" type="table" appref="{B31F1B9A-94A2-44C6-8A56-5C877E77D047}"/>
+    <we:binding id="c6e4b4f7-fb798e2f-c0709290" type="table" appref="{ECF3B838-887A-4C8D-A46A-DA00CA55386E}"/>
+    <we:binding id="3d58e438-99574d9e-1cd20636" type="table" appref="{ADFCE5D1-69CB-4024-954A-06AF7D562FE2}"/>
+    <we:binding id="a49c8f59-38a4325c-dfc61be0" type="table" appref="{9D90490B-8F3C-427A-BA76-C58A1736F19E}"/>
+    <we:binding id="79856da1-7fc20456-4e1b98d8" type="table" appref="{5538771A-5EFC-4E33-A9E8-FD1E7DD95777}"/>
+    <we:binding id="b87ae9e3-302093d2-f26967e7" type="table" appref="{6BC5655E-74FD-45C0-8F4B-FF0017D21991}"/>
+    <we:binding id="30a99369-0c7717de-1991953f" type="table" appref="{36CACB56-3566-4D54-BFF9-EF515F6279F3}"/>
+    <we:binding id="cc4e1d13-15a239fd-3a112d10" type="table" appref="{C00E3A5A-23C8-42D1-A451-ABF77825E1BD}"/>
+    <we:binding id="ce8bbf2a-c7439f7e-5f8d26c2" type="table" appref="{21025430-E10C-4FE9-891D-BC93D428882E}"/>
+    <we:binding id="ccf6ea05-d5f621e7-0bf76c66" type="table" appref="{E96C552D-9FA5-46B6-86DA-51AC803C106C}"/>
+    <we:binding id="32425608-96d8b58f-b301ecdb" type="table" appref="{3DB8B3DC-F9F0-4D06-B590-DC29400E756A}"/>
+    <we:binding id="8075df83-fc347ab9-038035b4" type="table" appref="{7BE72FB1-312A-4899-ACA6-4FD899877FCF}"/>
+    <we:binding id="7370a059-ca5bf989-07e64e37" type="table" appref="{9698A003-53FB-4B33-B80D-C76CF03F7790}"/>
+    <we:binding id="142538ed-c551058a-0a6d5b52" type="table" appref="{39DEB9FC-F302-4F31-869F-E7C5B1A7807E}"/>
+    <we:binding id="8c81d4bf-68ba1d92-894f2f32" type="table" appref="{652A2457-1C9B-4B10-8503-449EC4EF89C8}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -919,13 +969,13 @@
         <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,6 +1123,51 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{18A19C64-8C86-4D25-AAEF-658572E07F4A}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{6BE8F6FD-E7ED-4060-B2AA-27DD891E1C46}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{19977064-2444-46F0-95BE-CE656D83E7D0}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{B31F1B9A-94A2-44C6-8A56-5C877E77D047}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{ECF3B838-887A-4C8D-A46A-DA00CA55386E}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{ADFCE5D1-69CB-4024-954A-06AF7D562FE2}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{9D90490B-8F3C-427A-BA76-C58A1736F19E}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{5538771A-5EFC-4E33-A9E8-FD1E7DD95777}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{6BC5655E-74FD-45C0-8F4B-FF0017D21991}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{7BE72FB1-312A-4899-ACA6-4FD899877FCF}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{9698A003-53FB-4B33-B80D-C76CF03F7790}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{39DEB9FC-F302-4F31-869F-E7C5B1A7807E}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{652A2457-1C9B-4B10-8503-449EC4EF89C8}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1081,7 +1176,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,22 +1193,22 @@
         <v>58</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -1190,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1222,7 +1317,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1340,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -1254,16 +1349,16 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>59</v>
@@ -1272,16 +1367,16 @@
         <v>62</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>99</v>
+      <c r="N1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3243,21 +3338,6 @@
         <x15:webExtension appRef="{E9A5551A-1DB5-4654-914D-DDF528135674}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
-        <x15:webExtension appRef="{903C0781-0DA5-4C6E-9E89-C2B2B8766A94}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{AA6329C8-7FC3-48DD-B3F7-22AB1784471F}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{BDEDCEF8-1E75-4813-B2B4-EF23BBB80088}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{EAE1342D-1B33-4C11-9E98-059A952D7EF0}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
-        <x15:webExtension appRef="{81426C9C-CF8B-494D-8B5B-9DEC6FA0E90A}">
-          <xm:f>#REF!</xm:f>
-        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
@@ -3269,7 +3349,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3293,7 +3373,7 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3326,7 +3406,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3391,31 +3471,31 @@
         <v>73</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -3687,7 +3767,7 @@
         <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -3755,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -4443,5 +4523,41 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{471F297D-6875-4322-9DE3-35928C6D9C27}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{2035FF5F-6EDE-48D6-91FF-26B3BE491F60}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E5C6B0B7-4810-4698-8EBD-40C60CE5284E}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A82170B4-B383-4EA2-923C-A104667ADF53}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E015CDBB-D758-411F-9010-F09FFEC9C4C2}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{36CACB56-3566-4D54-BFF9-EF515F6279F3}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{C00E3A5A-23C8-42D1-A451-ABF77825E1BD}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{21025430-E10C-4FE9-891D-BC93D428882E}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{E96C552D-9FA5-46B6-86DA-51AC803C106C}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{3DB8B3DC-F9F0-4D06-B590-DC29400E756A}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
+++ b/pyloghub/sample_data/MilkrunPlusSampleDataReverse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75809CDC-374A-4662-A11D-413495926F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD05AD1-347E-4E76-B4B1-0B0C71B26041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{7623B84A-1039-4ECA-847E-AF1521EC2B05}"/>
   </bookViews>
@@ -345,7 +345,7 @@
     <t>latestRelativeBreakStart</t>
   </si>
   <si>
-    <t>fixedCostsTO</t>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
     <tableColumn id="10" xr3:uid="{47F0AD4A-9A1E-4D9E-A28E-E23EC12090E4}" name="timeWindowEnd" dataDxfId="0"/>
     <tableColumn id="11" xr3:uid="{19EB1AB1-E3D2-4670-A607-A635EA7EB92F}" name="profile"/>
     <tableColumn id="12" xr3:uid="{B1933258-2303-4C35-A687-CDF9BBF47761}" name="speedFactor"/>
-    <tableColumn id="13" xr3:uid="{D02EAA1D-3A2D-4FCA-B7E1-80186063ADDB}" name="fixedCostsTO"/>
+    <tableColumn id="13" xr3:uid="{D02EAA1D-3A2D-4FCA-B7E1-80186063ADDB}" name="fixed"/>
     <tableColumn id="14" xr3:uid="{DED1BF29-8973-4DF4-9D57-B7A5BC8F5476}" name="perHour"/>
     <tableColumn id="19" xr3:uid="{DB6766E5-7B71-4F57-9760-1FE3009D85ED}" name="perKilometer"/>
     <tableColumn id="18" xr3:uid="{BCDE9999-4111-47CA-93EC-30978E450EB8}" name="costPerStop"/>
